--- a/work/caffe.xlsx
+++ b/work/caffe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2983346f4b507dae/바탕 화면/Work/FinalProject_JBNU_ISE/work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_A6C6BEC56E096BFD12160B1BB35AFB2B502C1154" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2458760B-EF4A-4FED-9C3C-3A33E96D0EB6}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_A6C6BEC56E096BFD12160B1BB35AFB2B502C1154" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{232FBEBA-0003-4BB7-93A6-630533621E71}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="204" yWindow="1356" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -888,10 +888,13 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
